--- a/default/data/FnO.xlsx
+++ b/default/data/FnO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yash\Python Projects\tgm_stk_tkr\default\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yash\AppData\Roaming\MobaXterm\slash\RemoteFiles\66662_2_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="53">
   <si>
     <t>What</t>
   </si>
@@ -60,28 +60,64 @@
     <t>Bearish</t>
   </si>
   <si>
+    <t>BANDHANBNK</t>
+  </si>
+  <si>
+    <t>T1 Hit</t>
+  </si>
+  <si>
+    <t>Target achieved</t>
+  </si>
+  <si>
+    <t>BERGEPAINT</t>
+  </si>
+  <si>
+    <t>SL Hit</t>
+  </si>
+  <si>
+    <t>Bullish</t>
+  </si>
+  <si>
+    <t>SUNTV</t>
+  </si>
+  <si>
+    <t>BHARTIARTL</t>
+  </si>
+  <si>
+    <t>ACTIVE</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>OBEROIRLTY</t>
+  </si>
+  <si>
+    <t>Expired-T1 Hit</t>
+  </si>
+  <si>
+    <t>RBLBANK</t>
+  </si>
+  <si>
+    <t>DEEPAKNTR</t>
+  </si>
+  <si>
+    <t>SAIL</t>
+  </si>
+  <si>
+    <t>WHIRLPOOL</t>
+  </si>
+  <si>
     <t>IEX</t>
   </si>
   <si>
-    <t>T1 Hit</t>
-  </si>
-  <si>
-    <t>Target achieved</t>
-  </si>
-  <si>
-    <t>Bullish</t>
-  </si>
-  <si>
     <t>ICICIPRULI</t>
   </si>
   <si>
-    <t>ACTIVE</t>
-  </si>
-  <si>
-    <t>ON</t>
-  </si>
-  <si>
-    <t>BHARTIARTL</t>
+    <t>Expired-Stagnant</t>
+  </si>
+  <si>
+    <t>STAGNANT</t>
   </si>
   <si>
     <t>GODREJCP</t>
@@ -102,43 +138,43 @@
     <t>DIVISLAB</t>
   </si>
   <si>
+    <t>POLYCAB</t>
+  </si>
+  <si>
+    <t>Expired-SL Hit</t>
+  </si>
+  <si>
+    <t>TORNTPHARM</t>
+  </si>
+  <si>
     <t>MARICO</t>
   </si>
   <si>
-    <t>SL Hit</t>
-  </si>
-  <si>
     <t>GRANULES</t>
   </si>
   <si>
-    <t>POLYCAB</t>
-  </si>
-  <si>
-    <t>TORNTPHARM</t>
+    <t>ABBOTINDIA</t>
   </si>
   <si>
     <t>BOSCHLTD</t>
   </si>
   <si>
-    <t>ABBOTINDIA</t>
+    <t>BALRAMCHIN</t>
   </si>
   <si>
     <t>ASHOKLEY</t>
   </si>
   <si>
-    <t>BALRAMCHIN</t>
+    <t>BALKRISIND</t>
   </si>
   <si>
     <t>GLENMARK</t>
   </si>
   <si>
-    <t>BALKRISIND</t>
+    <t>POWERGRID</t>
   </si>
   <si>
     <t>HEROMOTOCO</t>
-  </si>
-  <si>
-    <t>POWERGRID</t>
   </si>
   <si>
     <t>RELIANCE</t>
@@ -508,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -562,25 +598,25 @@
         <v>12</v>
       </c>
       <c r="C2" s="2">
-        <v>44791</v>
+        <v>44799</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="E2">
-        <v>166.75</v>
+        <v>292.7</v>
       </c>
       <c r="F2">
-        <v>168.13</v>
+        <v>294.25</v>
       </c>
       <c r="G2">
-        <v>163.47</v>
+        <v>286.85000000000002</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
       </c>
       <c r="I2">
-        <v>165.15</v>
+        <v>286.14999999999998</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -594,31 +630,34 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44797</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2">
-        <v>44791</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3">
+        <v>652.45000000000005</v>
+      </c>
+      <c r="F3">
+        <v>657.83</v>
+      </c>
+      <c r="G3">
+        <v>639.4</v>
+      </c>
+      <c r="H3" t="s">
         <v>17</v>
       </c>
-      <c r="E3">
-        <v>597.4</v>
-      </c>
-      <c r="F3">
-        <v>551.99</v>
-      </c>
-      <c r="G3">
-        <v>615.32000000000005</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
+      <c r="I3">
+        <v>664.95</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -626,28 +665,28 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>44790</v>
+        <v>44797</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4">
-        <v>719</v>
+        <v>504.4</v>
       </c>
       <c r="F4">
-        <v>703.44</v>
+        <v>478.04</v>
       </c>
       <c r="G4">
-        <v>735.62</v>
+        <v>519.53</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
       </c>
       <c r="I4">
-        <v>734.9</v>
+        <v>523.45000000000005</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -661,31 +700,31 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2">
-        <v>44789</v>
+        <v>44796</v>
       </c>
       <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>739.8</v>
+      </c>
+      <c r="F5">
+        <v>704.12</v>
+      </c>
+      <c r="G5">
+        <v>761.99</v>
+      </c>
+      <c r="H5" t="s">
         <v>21</v>
-      </c>
-      <c r="E5">
-        <v>922.6</v>
-      </c>
-      <c r="F5">
-        <v>866.52</v>
-      </c>
-      <c r="G5">
-        <v>950.28</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -693,31 +732,31 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>44789</v>
+        <v>44796</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>42301</v>
+        <v>953</v>
       </c>
       <c r="F6">
-        <v>39712.86</v>
+        <v>922.1</v>
       </c>
       <c r="G6">
-        <v>43255.17</v>
+        <v>976.82</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I6">
-        <v>43255.17</v>
+        <v>977.45</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K6" t="s">
         <v>15</v>
@@ -728,34 +767,34 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2">
-        <v>44789</v>
+        <v>44795</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1657.25</v>
+        <v>97.75</v>
       </c>
       <c r="F7">
-        <v>1637.22</v>
+        <v>98.92</v>
       </c>
       <c r="G7">
-        <v>1706.97</v>
+        <v>95.8</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I7">
-        <v>1706.97</v>
+        <v>104.05</v>
       </c>
       <c r="J7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -766,28 +805,28 @@
         <v>12</v>
       </c>
       <c r="C8" s="2">
-        <v>44785</v>
+        <v>44795</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>1978</v>
+        <v>1998</v>
       </c>
       <c r="F8">
-        <v>2028.3</v>
+        <v>2014.22</v>
       </c>
       <c r="G8">
-        <v>1938.44</v>
+        <v>1958.04</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
       </c>
       <c r="I8">
-        <v>1938.44</v>
+        <v>1995</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K8" t="s">
         <v>15</v>
@@ -798,31 +837,31 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2">
-        <v>44785</v>
+        <v>44795</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>156.94999999999999</v>
+        <v>80</v>
       </c>
       <c r="F9">
-        <v>153.29</v>
+        <v>80.569999999999993</v>
       </c>
       <c r="G9">
-        <v>161.66</v>
+        <v>78.41</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I9">
-        <v>163.05000000000001</v>
+        <v>78.349999999999994</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K9" t="s">
         <v>15</v>
@@ -836,28 +875,28 @@
         <v>12</v>
       </c>
       <c r="C10" s="2">
-        <v>44784</v>
+        <v>44795</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E10">
-        <v>3905.2</v>
+        <v>1795.05</v>
       </c>
       <c r="F10">
-        <v>3950.28</v>
+        <v>1868.77</v>
       </c>
       <c r="G10">
-        <v>3827.1</v>
+        <v>1759.15</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I10">
-        <v>3827.1</v>
+        <v>1764.4</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="s">
         <v>15</v>
@@ -868,34 +907,34 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2">
-        <v>44777</v>
+        <v>44791</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E11">
-        <v>531.9</v>
+        <v>166.75</v>
       </c>
       <c r="F11">
-        <v>514.4</v>
+        <v>168.13</v>
       </c>
       <c r="G11">
-        <v>541.6</v>
+        <v>163.47</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I11">
-        <v>514.4</v>
+        <v>165.15</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -903,34 +942,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2">
-        <v>44777</v>
+        <v>44791</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12">
-        <v>310.95</v>
+        <v>597.4</v>
       </c>
       <c r="F12">
-        <v>319</v>
+        <v>551.99</v>
       </c>
       <c r="G12">
-        <v>304.73</v>
+        <v>615.32000000000005</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I12">
-        <v>304.73</v>
+        <v>590</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K12" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -938,34 +977,34 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2">
-        <v>44777</v>
+        <v>44790</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E13">
-        <v>2395</v>
+        <v>719</v>
       </c>
       <c r="F13">
-        <v>2393.54</v>
+        <v>703.44</v>
       </c>
       <c r="G13">
-        <v>2442.7199999999998</v>
+        <v>735.62</v>
       </c>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I13">
-        <v>2393.54</v>
+        <v>734.9</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K13" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -973,34 +1012,34 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2">
-        <v>44777</v>
+        <v>44789</v>
       </c>
       <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14">
+        <v>922.6</v>
+      </c>
+      <c r="F14">
+        <v>866.52</v>
+      </c>
+      <c r="G14">
+        <v>950.28</v>
+      </c>
+      <c r="H14" t="s">
         <v>31</v>
       </c>
-      <c r="E14">
-        <v>1536.1</v>
-      </c>
-      <c r="F14">
-        <v>1498.65</v>
-      </c>
-      <c r="G14">
-        <v>1572.19</v>
-      </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
       <c r="I14">
-        <v>1572.19</v>
+        <v>911.15</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K14" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1008,28 +1047,28 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C15" s="2">
-        <v>44776</v>
+        <v>44789</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E15">
-        <v>17480.45</v>
+        <v>42301</v>
       </c>
       <c r="F15">
-        <v>17830.02</v>
+        <v>39712.86</v>
       </c>
       <c r="G15">
-        <v>17130.84</v>
+        <v>43255.17</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
       </c>
       <c r="I15">
-        <v>17130.84</v>
+        <v>43255.17</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1043,31 +1082,31 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C16" s="2">
-        <v>44776</v>
+        <v>44789</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E16">
-        <v>20090</v>
+        <v>1657.25</v>
       </c>
       <c r="F16">
-        <v>20608.400000000001</v>
+        <v>1637.22</v>
       </c>
       <c r="G16">
-        <v>19688.2</v>
+        <v>1706.97</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
       </c>
       <c r="I16">
-        <v>19688.2</v>
+        <v>1706.97</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K16" t="s">
         <v>15</v>
@@ -1081,28 +1120,28 @@
         <v>12</v>
       </c>
       <c r="C17" s="2">
-        <v>44775</v>
+        <v>44785</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E17">
-        <v>149.75</v>
+        <v>1978</v>
       </c>
       <c r="F17">
-        <v>155.47999999999999</v>
+        <v>2028.3</v>
       </c>
       <c r="G17">
-        <v>146.75</v>
+        <v>1938.44</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I17">
-        <v>146.75</v>
+        <v>1938.44</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K17" t="s">
         <v>15</v>
@@ -1113,34 +1152,34 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2">
-        <v>44775</v>
+        <v>44785</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E18">
-        <v>398.65</v>
+        <v>156.94999999999999</v>
       </c>
       <c r="F18">
-        <v>396.28</v>
+        <v>153.29</v>
       </c>
       <c r="G18">
-        <v>410.61</v>
+        <v>161.66</v>
       </c>
       <c r="H18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I18">
-        <v>396.28</v>
+        <v>163.05000000000001</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K18" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1151,28 +1190,28 @@
         <v>12</v>
       </c>
       <c r="C19" s="2">
-        <v>44775</v>
+        <v>44784</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E19">
-        <v>376.2</v>
+        <v>3905.2</v>
       </c>
       <c r="F19">
-        <v>380.77</v>
+        <v>3950.28</v>
       </c>
       <c r="G19">
-        <v>368.68</v>
+        <v>3827.1</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I19">
-        <v>368.68</v>
+        <v>3827.1</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K19" t="s">
         <v>15</v>
@@ -1183,34 +1222,34 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C20" s="2">
-        <v>44775</v>
+        <v>44777</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E20">
-        <v>2408.3000000000002</v>
+        <v>2395</v>
       </c>
       <c r="F20">
-        <v>2293.9299999999998</v>
+        <v>2393.54</v>
       </c>
       <c r="G20">
-        <v>2465.88</v>
+        <v>2442.7199999999998</v>
       </c>
       <c r="H20" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I20">
-        <v>2293.9299999999998</v>
+        <v>2393.54</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K20" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1218,34 +1257,34 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C21" s="2">
-        <v>44774</v>
+        <v>44777</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E21">
-        <v>2899</v>
+        <v>1536.1</v>
       </c>
       <c r="F21">
-        <v>2826.03</v>
+        <v>1498.65</v>
       </c>
       <c r="G21">
-        <v>2959.15</v>
+        <v>1572.19</v>
       </c>
       <c r="H21" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I21">
-        <v>2826.03</v>
+        <v>1572.19</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1253,34 +1292,34 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C22" s="2">
-        <v>44774</v>
+        <v>44777</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E22">
-        <v>218.2</v>
+        <v>531.9</v>
       </c>
       <c r="F22">
-        <v>216.5</v>
+        <v>514.4</v>
       </c>
       <c r="G22">
-        <v>224.75</v>
+        <v>541.6</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="I22">
-        <v>224.75</v>
+        <v>514.4</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1288,35 +1327,383 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C23" s="2">
+        <v>44777</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23">
+        <v>310.95</v>
+      </c>
+      <c r="F23">
+        <v>319</v>
+      </c>
+      <c r="G23">
+        <v>304.73</v>
+      </c>
+      <c r="H23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23">
+        <v>304.73</v>
+      </c>
+      <c r="J23">
+        <v>7</v>
+      </c>
+      <c r="K23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2">
+        <v>44776</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24">
+        <v>20090</v>
+      </c>
+      <c r="F24">
+        <v>20608.400000000001</v>
+      </c>
+      <c r="G24">
+        <v>19688.2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24">
+        <v>19688.2</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2">
+        <v>44776</v>
+      </c>
+      <c r="D25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25">
+        <v>17480.45</v>
+      </c>
+      <c r="F25">
+        <v>17830.02</v>
+      </c>
+      <c r="G25">
+        <v>17130.84</v>
+      </c>
+      <c r="H25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25">
+        <v>17130.84</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="2">
+        <v>44775</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26">
+        <v>398.65</v>
+      </c>
+      <c r="F26">
+        <v>396.28</v>
+      </c>
+      <c r="G26">
+        <v>410.61</v>
+      </c>
+      <c r="H26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26">
+        <v>396.28</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2">
+        <v>44775</v>
+      </c>
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27">
+        <v>149.75</v>
+      </c>
+      <c r="F27">
+        <v>155.47999999999999</v>
+      </c>
+      <c r="G27">
+        <v>146.75</v>
+      </c>
+      <c r="H27" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27">
+        <v>146.75</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="2">
+        <v>44775</v>
+      </c>
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28">
+        <v>2408.3000000000002</v>
+      </c>
+      <c r="F28">
+        <v>2293.9299999999998</v>
+      </c>
+      <c r="G28">
+        <v>2465.88</v>
+      </c>
+      <c r="H28" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28">
+        <v>2293.9299999999998</v>
+      </c>
+      <c r="J28">
+        <v>4</v>
+      </c>
+      <c r="K28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2">
+        <v>44775</v>
+      </c>
+      <c r="D29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29">
+        <v>376.2</v>
+      </c>
+      <c r="F29">
+        <v>380.77</v>
+      </c>
+      <c r="G29">
+        <v>368.68</v>
+      </c>
+      <c r="H29" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29">
+        <v>368.68</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="2">
         <v>44774</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30">
+        <v>218.2</v>
+      </c>
+      <c r="F30">
+        <v>216.5</v>
+      </c>
+      <c r="G30">
+        <v>224.75</v>
+      </c>
+      <c r="H30" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30">
+        <v>224.75</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="2">
+        <v>44774</v>
+      </c>
+      <c r="D31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31">
+        <v>2899</v>
+      </c>
+      <c r="F31">
+        <v>2826.03</v>
+      </c>
+      <c r="G31">
+        <v>2959.15</v>
+      </c>
+      <c r="H31" t="s">
         <v>40</v>
       </c>
-      <c r="E23">
+      <c r="I31">
+        <v>2826.03</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="2">
+        <v>44774</v>
+      </c>
+      <c r="D32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32">
         <v>2585.25</v>
       </c>
-      <c r="F23">
+      <c r="F32">
         <v>2561.33</v>
       </c>
-      <c r="G23">
+      <c r="G32">
         <v>2662.81</v>
       </c>
-      <c r="H23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I23">
+      <c r="H32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I32">
         <v>2561.33</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23" t="s">
-        <v>28</v>
-      </c>
+      <c r="J32">
+        <v>5</v>
+      </c>
+      <c r="K32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C43" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
